--- a/biology/Zoologie/Crapaud_de_Woodhouse/Crapaud_de_Woodhouse.xlsx
+++ b/biology/Zoologie/Crapaud_de_Woodhouse/Crapaud_de_Woodhouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaxyrus woodhousii
-Anaxyrus woodhousii, le Crapaud de Woodhouse, est une espèce d'amphibiens de la famille des Bufonidae[1]. Elle était anciennement appelée Bufo woodhousii.
+Anaxyrus woodhousii, le Crapaud de Woodhouse, est une espèce d'amphibiens de la famille des Bufonidae. Elle était anciennement appelée Bufo woodhousii.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre :
 aux États-Unis au Dakota du Nord, au Dakota du Sud, au Montana, au Wyoming, en Idaho, au Washington, en Oregon, en Californie, au Nevada, en Utah, en Arizona, au Nouveau-Mexique, au Colorado, au Nebraska, dans l'ouest de l'Iowa, au Kansas, au Missouri, en Oklahoma, au Texas ;
@@ -545,9 +559,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux sous-espèces sont reconnues par Masta et al. en 2002[2] Anaxyrus woodhousei woodhousei et Anaxyrus woodhousei australis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux sous-espèces sont reconnues par Masta et al. en 2002 Anaxyrus woodhousei woodhousei et Anaxyrus woodhousei australis.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Samuel Washington Woodhouse[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Samuel Washington Woodhouse.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Girard, 1854 : Descriptions of new genera and species of North American Frogs. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 7, p. 86–88  (texte intégral).</t>
         </is>
